--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H2">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I2">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J2">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>17.1561176825066</v>
+        <v>0.7246186666666666</v>
       </c>
       <c r="N2">
-        <v>17.1561176825066</v>
+        <v>2.173856</v>
       </c>
       <c r="O2">
-        <v>0.6968060159873856</v>
+        <v>0.02655111241446272</v>
       </c>
       <c r="P2">
-        <v>0.6968060159873856</v>
+        <v>0.02655111241446271</v>
       </c>
       <c r="Q2">
-        <v>113.9372986299258</v>
+        <v>5.058428374467554</v>
       </c>
       <c r="R2">
-        <v>113.9372986299258</v>
+        <v>45.52585537020799</v>
       </c>
       <c r="S2">
-        <v>0.1795914494399668</v>
+        <v>0.006832531053223684</v>
       </c>
       <c r="T2">
-        <v>0.1795914494399668</v>
+        <v>0.006832531053223683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H3">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I3">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J3">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.4649637790191</v>
+        <v>17.195945</v>
       </c>
       <c r="N3">
-        <v>7.4649637790191</v>
+        <v>51.587835</v>
       </c>
       <c r="O3">
-        <v>0.3031939840126144</v>
+        <v>0.630085160334334</v>
       </c>
       <c r="P3">
-        <v>0.3031939840126144</v>
+        <v>0.630085160334334</v>
       </c>
       <c r="Q3">
-        <v>49.57635655641008</v>
+        <v>120.0416993312116</v>
       </c>
       <c r="R3">
-        <v>49.57635655641008</v>
+        <v>1080.375293980905</v>
       </c>
       <c r="S3">
-        <v>0.07814376713316044</v>
+        <v>0.1621429775505275</v>
       </c>
       <c r="T3">
-        <v>0.07814376713316044</v>
+        <v>0.1621429775505275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.32713859321921</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H4">
-        <v>6.32713859321921</v>
+        <v>20.942443</v>
       </c>
       <c r="I4">
-        <v>0.2455467610145532</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J4">
-        <v>0.2455467610145532</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.1561176825066</v>
+        <v>9.370898</v>
       </c>
       <c r="N4">
-        <v>17.1561176825066</v>
+        <v>28.112694</v>
       </c>
       <c r="O4">
-        <v>0.6968060159873856</v>
+        <v>0.3433637272512032</v>
       </c>
       <c r="P4">
-        <v>0.6968060159873856</v>
+        <v>0.3433637272512032</v>
       </c>
       <c r="Q4">
-        <v>108.549134298798</v>
+        <v>65.41649907460466</v>
       </c>
       <c r="R4">
-        <v>108.549134298798</v>
+        <v>588.7484916714419</v>
       </c>
       <c r="S4">
-        <v>0.1710984602811575</v>
+        <v>0.08835951173618453</v>
       </c>
       <c r="T4">
-        <v>0.1710984602811575</v>
+        <v>0.08835951173618453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H5">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I5">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J5">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>7.4649637790191</v>
+        <v>0.7246186666666666</v>
       </c>
       <c r="N5">
-        <v>7.4649637790191</v>
+        <v>2.173856</v>
       </c>
       <c r="O5">
-        <v>0.3031939840126144</v>
+        <v>0.02655111241446272</v>
       </c>
       <c r="P5">
-        <v>0.3031939840126144</v>
+        <v>0.02655111241446271</v>
       </c>
       <c r="Q5">
-        <v>47.23186042321527</v>
+        <v>4.619706070417777</v>
       </c>
       <c r="R5">
-        <v>47.23186042321527</v>
+        <v>41.57735463376</v>
       </c>
       <c r="S5">
-        <v>0.0744483007333957</v>
+        <v>0.006239939136474944</v>
       </c>
       <c r="T5">
-        <v>0.0744483007333957</v>
+        <v>0.006239939136474943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.14316724269893</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H6">
-        <v>5.14316724269893</v>
+        <v>19.126085</v>
       </c>
       <c r="I6">
-        <v>0.1995986083115532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J6">
-        <v>0.1995986083115532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.1561176825066</v>
+        <v>17.195945</v>
       </c>
       <c r="N6">
-        <v>17.1561176825066</v>
+        <v>51.587835</v>
       </c>
       <c r="O6">
-        <v>0.6968060159873856</v>
+        <v>0.630085160334334</v>
       </c>
       <c r="P6">
-        <v>0.6968060159873856</v>
+        <v>0.630085160334334</v>
       </c>
       <c r="Q6">
-        <v>88.23678247655583</v>
+        <v>109.6303685751083</v>
       </c>
       <c r="R6">
-        <v>88.23678247655583</v>
+        <v>986.6733171759749</v>
       </c>
       <c r="S6">
-        <v>0.1390815110542001</v>
+        <v>0.1480801628914297</v>
       </c>
       <c r="T6">
-        <v>0.1390815110542001</v>
+        <v>0.1480801628914297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.14316724269893</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H7">
-        <v>5.14316724269893</v>
+        <v>19.126085</v>
       </c>
       <c r="I7">
-        <v>0.1995986083115532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J7">
-        <v>0.1995986083115532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.4649637790191</v>
+        <v>9.370898</v>
       </c>
       <c r="N7">
-        <v>7.4649637790191</v>
+        <v>28.112694</v>
       </c>
       <c r="O7">
-        <v>0.3031939840126144</v>
+        <v>0.3433637272512032</v>
       </c>
       <c r="P7">
-        <v>0.3031939840126144</v>
+        <v>0.3433637272512032</v>
       </c>
       <c r="Q7">
-        <v>38.39355717618505</v>
+        <v>59.74286389144333</v>
       </c>
       <c r="R7">
-        <v>38.39355717618505</v>
+        <v>537.68577502299</v>
       </c>
       <c r="S7">
-        <v>0.06051709725735315</v>
+        <v>0.08069600724350846</v>
       </c>
       <c r="T7">
-        <v>0.06051709725735315</v>
+        <v>0.08069600724350846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.65603954205781</v>
+        <v>5.973131</v>
       </c>
       <c r="H8">
-        <v>7.65603954205781</v>
+        <v>17.919393</v>
       </c>
       <c r="I8">
-        <v>0.2971194141007664</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J8">
-        <v>0.2971194141007664</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>17.1561176825066</v>
+        <v>0.7246186666666666</v>
       </c>
       <c r="N8">
-        <v>17.1561176825066</v>
+        <v>2.173856</v>
       </c>
       <c r="O8">
-        <v>0.6968060159873856</v>
+        <v>0.02655111241446272</v>
       </c>
       <c r="P8">
-        <v>0.6968060159873856</v>
+        <v>0.02655111241446271</v>
       </c>
       <c r="Q8">
-        <v>131.3479153654677</v>
+        <v>4.328242221045333</v>
       </c>
       <c r="R8">
-        <v>131.3479153654677</v>
+        <v>38.954179989408</v>
       </c>
       <c r="S8">
-        <v>0.2070345952120612</v>
+        <v>0.005846252470517367</v>
       </c>
       <c r="T8">
-        <v>0.2070345952120612</v>
+        <v>0.005846252470517366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.973131</v>
+      </c>
+      <c r="H9">
+        <v>17.919393</v>
+      </c>
+      <c r="I9">
+        <v>0.2201886075150976</v>
+      </c>
+      <c r="J9">
+        <v>0.2201886075150976</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.195945</v>
+      </c>
+      <c r="N9">
+        <v>51.587835</v>
+      </c>
+      <c r="O9">
+        <v>0.630085160334334</v>
+      </c>
+      <c r="P9">
+        <v>0.630085160334334</v>
+      </c>
+      <c r="Q9">
+        <v>102.713632153795</v>
+      </c>
+      <c r="R9">
+        <v>924.422689384155</v>
+      </c>
+      <c r="S9">
+        <v>0.138737574069944</v>
+      </c>
+      <c r="T9">
+        <v>0.138737574069944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.65603954205781</v>
-      </c>
-      <c r="H9">
-        <v>7.65603954205781</v>
-      </c>
-      <c r="I9">
-        <v>0.2971194141007664</v>
-      </c>
-      <c r="J9">
-        <v>0.2971194141007664</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.4649637790191</v>
-      </c>
-      <c r="N9">
-        <v>7.4649637790191</v>
-      </c>
-      <c r="O9">
-        <v>0.3031939840126144</v>
-      </c>
-      <c r="P9">
-        <v>0.3031939840126144</v>
-      </c>
-      <c r="Q9">
-        <v>57.15205787219953</v>
-      </c>
-      <c r="R9">
-        <v>57.15205787219953</v>
-      </c>
-      <c r="S9">
-        <v>0.09008481888870511</v>
-      </c>
-      <c r="T9">
-        <v>0.09008481888870511</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.973131</v>
+      </c>
+      <c r="H10">
+        <v>17.919393</v>
+      </c>
+      <c r="I10">
+        <v>0.2201886075150976</v>
+      </c>
+      <c r="J10">
+        <v>0.2201886075150976</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.370898</v>
+      </c>
+      <c r="N10">
+        <v>28.112694</v>
+      </c>
+      <c r="O10">
+        <v>0.3433637272512032</v>
+      </c>
+      <c r="P10">
+        <v>0.3433637272512032</v>
+      </c>
+      <c r="Q10">
+        <v>55.97360134163799</v>
+      </c>
+      <c r="R10">
+        <v>503.762412074742</v>
+      </c>
+      <c r="S10">
+        <v>0.0756047809746362</v>
+      </c>
+      <c r="T10">
+        <v>0.0756047809746362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.798031999999999</v>
+      </c>
+      <c r="H11">
+        <v>23.394096</v>
+      </c>
+      <c r="I11">
+        <v>0.2874602628735535</v>
+      </c>
+      <c r="J11">
+        <v>0.2874602628735535</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.7246186666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.173856</v>
+      </c>
+      <c r="O11">
+        <v>0.02655111241446272</v>
+      </c>
+      <c r="P11">
+        <v>0.02655111241446271</v>
+      </c>
+      <c r="Q11">
+        <v>5.650599550463999</v>
+      </c>
+      <c r="R11">
+        <v>50.85539595417599</v>
+      </c>
+      <c r="S11">
+        <v>0.007632389754246723</v>
+      </c>
+      <c r="T11">
+        <v>0.007632389754246722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.798031999999999</v>
+      </c>
+      <c r="H12">
+        <v>23.394096</v>
+      </c>
+      <c r="I12">
+        <v>0.2874602628735535</v>
+      </c>
+      <c r="J12">
+        <v>0.2874602628735535</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.195945</v>
+      </c>
+      <c r="N12">
+        <v>51.587835</v>
+      </c>
+      <c r="O12">
+        <v>0.630085160334334</v>
+      </c>
+      <c r="P12">
+        <v>0.630085160334334</v>
+      </c>
+      <c r="Q12">
+        <v>134.09452938024</v>
+      </c>
+      <c r="R12">
+        <v>1206.85076442216</v>
+      </c>
+      <c r="S12">
+        <v>0.1811244458224328</v>
+      </c>
+      <c r="T12">
+        <v>0.1811244458224328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.798031999999999</v>
+      </c>
+      <c r="H13">
+        <v>23.394096</v>
+      </c>
+      <c r="I13">
+        <v>0.2874602628735535</v>
+      </c>
+      <c r="J13">
+        <v>0.2874602628735535</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.370898</v>
+      </c>
+      <c r="N13">
+        <v>28.112694</v>
+      </c>
+      <c r="O13">
+        <v>0.3433637272512032</v>
+      </c>
+      <c r="P13">
+        <v>0.3433637272512032</v>
+      </c>
+      <c r="Q13">
+        <v>73.07456247273599</v>
+      </c>
+      <c r="R13">
+        <v>657.671062254624</v>
+      </c>
+      <c r="S13">
+        <v>0.09870342729687399</v>
+      </c>
+      <c r="T13">
+        <v>0.09870342729687399</v>
       </c>
     </row>
   </sheetData>
